--- a/natmiOut/OldD2/LR-pairs_lrc2p/Plau-St14.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Plau-St14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.2591112668206</v>
+        <v>22.556342</v>
       </c>
       <c r="H2">
-        <v>21.2591112668206</v>
+        <v>45.112684</v>
       </c>
       <c r="I2">
-        <v>0.06698883709196432</v>
+        <v>0.06676290190277349</v>
       </c>
       <c r="J2">
-        <v>0.06698883709196432</v>
+        <v>0.04665728030990886</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.56589620910647</v>
+        <v>1.6605755</v>
       </c>
       <c r="N2">
-        <v>1.56589620910647</v>
+        <v>3.321151</v>
       </c>
       <c r="O2">
-        <v>0.4479725869439832</v>
+        <v>0.4183476510362441</v>
       </c>
       <c r="P2">
-        <v>0.4479725869439832</v>
+        <v>0.3376807885245403</v>
       </c>
       <c r="Q2">
-        <v>33.28956174168702</v>
+        <v>37.456508894821</v>
       </c>
       <c r="R2">
-        <v>33.28956174168702</v>
+        <v>149.826035579284</v>
       </c>
       <c r="S2">
-        <v>0.03000916264845631</v>
+        <v>0.02793010318738848</v>
       </c>
       <c r="T2">
-        <v>0.03000916264845631</v>
+        <v>0.01575526720546053</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.2591112668206</v>
+        <v>22.556342</v>
       </c>
       <c r="H3">
-        <v>21.2591112668206</v>
+        <v>45.112684</v>
       </c>
       <c r="I3">
-        <v>0.06698883709196432</v>
+        <v>0.06676290190277349</v>
       </c>
       <c r="J3">
-        <v>0.06698883709196432</v>
+        <v>0.04665728030990886</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.203679166430238</v>
+        <v>0.08815566666666667</v>
       </c>
       <c r="N3">
-        <v>0.203679166430238</v>
+        <v>0.264467</v>
       </c>
       <c r="O3">
-        <v>0.05826866593183248</v>
+        <v>0.02220899686616725</v>
       </c>
       <c r="P3">
-        <v>0.05826866593183248</v>
+        <v>0.02688990205465503</v>
       </c>
       <c r="Q3">
-        <v>4.330038061873701</v>
+        <v>1.988469366571334</v>
       </c>
       <c r="R3">
-        <v>4.330038061873701</v>
+        <v>11.930816199428</v>
       </c>
       <c r="S3">
-        <v>0.003903350169673617</v>
+        <v>0.001482737079134928</v>
       </c>
       <c r="T3">
-        <v>0.003903350169673617</v>
+        <v>0.001254609697670034</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.2591112668206</v>
+        <v>22.556342</v>
       </c>
       <c r="H4">
-        <v>21.2591112668206</v>
+        <v>45.112684</v>
       </c>
       <c r="I4">
-        <v>0.06698883709196432</v>
+        <v>0.06676290190277349</v>
       </c>
       <c r="J4">
-        <v>0.06698883709196432</v>
+        <v>0.04665728030990886</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.536288265139416</v>
+        <v>0.3906076666666667</v>
       </c>
       <c r="N4">
-        <v>0.536288265139416</v>
+        <v>1.171823</v>
       </c>
       <c r="O4">
-        <v>0.1534216891803396</v>
+        <v>0.09840552255934656</v>
       </c>
       <c r="P4">
-        <v>0.1534216891803396</v>
+        <v>0.1191460775650347</v>
       </c>
       <c r="Q4">
-        <v>11.40101189968903</v>
+        <v>8.810680117155334</v>
       </c>
       <c r="R4">
-        <v>11.40101189968903</v>
+        <v>52.86408070293201</v>
       </c>
       <c r="S4">
-        <v>0.01027754054287575</v>
+        <v>0.006569838249320819</v>
       </c>
       <c r="T4">
-        <v>0.01027754054287575</v>
+        <v>0.005559031938777965</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>21.2591112668206</v>
+        <v>22.556342</v>
       </c>
       <c r="H5">
-        <v>21.2591112668206</v>
+        <v>45.112684</v>
       </c>
       <c r="I5">
-        <v>0.06698883709196432</v>
+        <v>0.06676290190277349</v>
       </c>
       <c r="J5">
-        <v>0.06698883709196432</v>
+        <v>0.04665728030990886</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.779176926621076</v>
+        <v>0.569855</v>
       </c>
       <c r="N5">
-        <v>0.779176926621076</v>
+        <v>1.709565</v>
       </c>
       <c r="O5">
-        <v>0.2229074324821822</v>
+        <v>0.143563180765499</v>
       </c>
       <c r="P5">
-        <v>0.2229074324821822</v>
+        <v>0.1738214423957103</v>
       </c>
       <c r="Q5">
-        <v>16.56460897957676</v>
+        <v>12.85384427041</v>
       </c>
       <c r="R5">
-        <v>16.56460897957676</v>
+        <v>77.12306562246</v>
       </c>
       <c r="S5">
-        <v>0.01493230968113694</v>
+        <v>0.009584694554297148</v>
       </c>
       <c r="T5">
-        <v>0.01493230968113694</v>
+        <v>0.008110035761729334</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>21.2591112668206</v>
+        <v>22.556342</v>
       </c>
       <c r="H6">
-        <v>21.2591112668206</v>
+        <v>45.112684</v>
       </c>
       <c r="I6">
-        <v>0.06698883709196432</v>
+        <v>0.06676290190277349</v>
       </c>
       <c r="J6">
-        <v>0.06698883709196432</v>
+        <v>0.04665728030990886</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.410477361129697</v>
+        <v>0.847826</v>
       </c>
       <c r="N6">
-        <v>0.410477361129697</v>
+        <v>2.543478</v>
       </c>
       <c r="O6">
-        <v>0.1174296254616625</v>
+        <v>0.2135922248566564</v>
       </c>
       <c r="P6">
-        <v>0.1174296254616625</v>
+        <v>0.2586102398339674</v>
       </c>
       <c r="Q6">
-        <v>8.72638389276713</v>
+        <v>19.123853212492</v>
       </c>
       <c r="R6">
-        <v>8.72638389276713</v>
+        <v>114.743119274952</v>
       </c>
       <c r="S6">
-        <v>0.007866474049821695</v>
+        <v>0.01426003675530009</v>
       </c>
       <c r="T6">
-        <v>0.007866474049821695</v>
+        <v>0.01206605045094617</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>123.765810628069</v>
+        <v>22.556342</v>
       </c>
       <c r="H7">
-        <v>123.765810628069</v>
+        <v>45.112684</v>
       </c>
       <c r="I7">
-        <v>0.3899940887302467</v>
+        <v>0.06676290190277349</v>
       </c>
       <c r="J7">
-        <v>0.3899940887302467</v>
+        <v>0.04665728030990886</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.56589620910647</v>
+        <v>0.4123475</v>
       </c>
       <c r="N7">
-        <v>1.56589620910647</v>
+        <v>0.824695</v>
       </c>
       <c r="O7">
-        <v>0.4479725869439832</v>
+        <v>0.1038824239160867</v>
       </c>
       <c r="P7">
-        <v>0.4479725869439832</v>
+        <v>0.0838515496260922</v>
       </c>
       <c r="Q7">
-        <v>193.8044136794825</v>
+        <v>9.301051232844999</v>
       </c>
       <c r="R7">
-        <v>193.8044136794825</v>
+        <v>37.20420493138</v>
       </c>
       <c r="S7">
-        <v>0.1747066608213499</v>
+        <v>0.006935492077332028</v>
       </c>
       <c r="T7">
-        <v>0.1747066608213499</v>
+        <v>0.003912285255324817</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>123.765810628069</v>
+        <v>136.2606836666667</v>
       </c>
       <c r="H8">
-        <v>123.765810628069</v>
+        <v>408.782051</v>
       </c>
       <c r="I8">
-        <v>0.3899940887302467</v>
+        <v>0.4033082428366495</v>
       </c>
       <c r="J8">
-        <v>0.3899940887302467</v>
+        <v>0.4227781867105593</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.203679166430238</v>
+        <v>1.6605755</v>
       </c>
       <c r="N8">
-        <v>0.203679166430238</v>
+        <v>3.321151</v>
       </c>
       <c r="O8">
-        <v>0.05826866593183248</v>
+        <v>0.4183476510362441</v>
       </c>
       <c r="P8">
-        <v>0.05826866593183248</v>
+        <v>0.3376807885245403</v>
       </c>
       <c r="Q8">
-        <v>25.20851714128779</v>
+        <v>226.2711529101168</v>
       </c>
       <c r="R8">
-        <v>25.20851714128779</v>
+        <v>1357.626917460701</v>
       </c>
       <c r="S8">
-        <v>0.02272443527161218</v>
+        <v>0.1687230560342674</v>
       </c>
       <c r="T8">
-        <v>0.02272443527161218</v>
+        <v>0.142764071459397</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>123.765810628069</v>
+        <v>136.2606836666667</v>
       </c>
       <c r="H9">
-        <v>123.765810628069</v>
+        <v>408.782051</v>
       </c>
       <c r="I9">
-        <v>0.3899940887302467</v>
+        <v>0.4033082428366495</v>
       </c>
       <c r="J9">
-        <v>0.3899940887302467</v>
+        <v>0.4227781867105593</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.536288265139416</v>
+        <v>0.08815566666666667</v>
       </c>
       <c r="N9">
-        <v>0.536288265139416</v>
+        <v>0.264467</v>
       </c>
       <c r="O9">
-        <v>0.1534216891803396</v>
+        <v>0.02220899686616725</v>
       </c>
       <c r="P9">
-        <v>0.1534216891803396</v>
+        <v>0.02688990205465503</v>
       </c>
       <c r="Q9">
-        <v>66.37415186530062</v>
+        <v>12.01215140909078</v>
       </c>
       <c r="R9">
-        <v>66.37415186530062</v>
+        <v>108.109362681817</v>
       </c>
       <c r="S9">
-        <v>0.0598335518633417</v>
+        <v>0.008957071501258572</v>
       </c>
       <c r="T9">
-        <v>0.0598335518633417</v>
+        <v>0.0113684640314916</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>123.765810628069</v>
+        <v>136.2606836666667</v>
       </c>
       <c r="H10">
-        <v>123.765810628069</v>
+        <v>408.782051</v>
       </c>
       <c r="I10">
-        <v>0.3899940887302467</v>
+        <v>0.4033082428366495</v>
       </c>
       <c r="J10">
-        <v>0.3899940887302467</v>
+        <v>0.4227781867105593</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.779176926621076</v>
+        <v>0.3906076666666667</v>
       </c>
       <c r="N10">
-        <v>0.779176926621076</v>
+        <v>1.171823</v>
       </c>
       <c r="O10">
-        <v>0.2229074324821822</v>
+        <v>0.09840552255934656</v>
       </c>
       <c r="P10">
-        <v>0.2229074324821822</v>
+        <v>0.1191460775650347</v>
       </c>
       <c r="Q10">
-        <v>96.4354639459449</v>
+        <v>53.22446770544145</v>
       </c>
       <c r="R10">
-        <v>96.4354639459449</v>
+        <v>479.020209348973</v>
       </c>
       <c r="S10">
-        <v>0.08693258100208764</v>
+        <v>0.03968775838883234</v>
       </c>
       <c r="T10">
-        <v>0.08693258100208764</v>
+        <v>0.050372362626621</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>123.765810628069</v>
+        <v>136.2606836666667</v>
       </c>
       <c r="H11">
-        <v>123.765810628069</v>
+        <v>408.782051</v>
       </c>
       <c r="I11">
-        <v>0.3899940887302467</v>
+        <v>0.4033082428366495</v>
       </c>
       <c r="J11">
-        <v>0.3899940887302467</v>
+        <v>0.4227781867105593</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.410477361129697</v>
+        <v>0.569855</v>
       </c>
       <c r="N11">
-        <v>0.410477361129697</v>
+        <v>1.709565</v>
       </c>
       <c r="O11">
-        <v>0.1174296254616625</v>
+        <v>0.143563180765499</v>
       </c>
       <c r="P11">
-        <v>0.1174296254616625</v>
+        <v>0.1738214423957103</v>
       </c>
       <c r="Q11">
-        <v>50.80306334468757</v>
+        <v>77.64883189086834</v>
       </c>
       <c r="R11">
-        <v>50.80306334468757</v>
+        <v>698.839487017815</v>
       </c>
       <c r="S11">
-        <v>0.04579685977185526</v>
+        <v>0.05790021417057367</v>
       </c>
       <c r="T11">
-        <v>0.04579685977185526</v>
+        <v>0.07348791422747235</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>58.2069871964123</v>
+        <v>136.2606836666667</v>
       </c>
       <c r="H12">
-        <v>58.2069871964123</v>
+        <v>408.782051</v>
       </c>
       <c r="I12">
-        <v>0.1834139881943269</v>
+        <v>0.4033082428366495</v>
       </c>
       <c r="J12">
-        <v>0.1834139881943269</v>
+        <v>0.4227781867105593</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.56589620910647</v>
+        <v>0.847826</v>
       </c>
       <c r="N12">
-        <v>1.56589620910647</v>
+        <v>2.543478</v>
       </c>
       <c r="O12">
-        <v>0.4479725869439832</v>
+        <v>0.2135922248566564</v>
       </c>
       <c r="P12">
-        <v>0.4479725869439832</v>
+        <v>0.2586102398339674</v>
       </c>
       <c r="Q12">
-        <v>91.14610059437086</v>
+        <v>115.5253503903753</v>
       </c>
       <c r="R12">
-        <v>91.14610059437086</v>
+        <v>1039.728153513378</v>
       </c>
       <c r="S12">
-        <v>0.08216443877312583</v>
+        <v>0.08614350489050863</v>
       </c>
       <c r="T12">
-        <v>0.08216443877312583</v>
+        <v>0.1093347682617876</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>58.2069871964123</v>
+        <v>136.2606836666667</v>
       </c>
       <c r="H13">
-        <v>58.2069871964123</v>
+        <v>408.782051</v>
       </c>
       <c r="I13">
-        <v>0.1834139881943269</v>
+        <v>0.4033082428366495</v>
       </c>
       <c r="J13">
-        <v>0.1834139881943269</v>
+        <v>0.4227781867105593</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.203679166430238</v>
+        <v>0.4123475</v>
       </c>
       <c r="N13">
-        <v>0.203679166430238</v>
+        <v>0.824695</v>
       </c>
       <c r="O13">
-        <v>0.05826866593183248</v>
+        <v>0.1038824239160867</v>
       </c>
       <c r="P13">
-        <v>0.05826866593183248</v>
+        <v>0.0838515496260922</v>
       </c>
       <c r="Q13">
-        <v>11.85555063258079</v>
+        <v>56.18675225824083</v>
       </c>
       <c r="R13">
-        <v>11.85555063258079</v>
+        <v>337.120513549445</v>
       </c>
       <c r="S13">
-        <v>0.0106872884053203</v>
+        <v>0.04189663785120887</v>
       </c>
       <c r="T13">
-        <v>0.0106872884053203</v>
+        <v>0.03545060610378974</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>58.2069871964123</v>
+        <v>60.036368</v>
       </c>
       <c r="H14">
-        <v>58.2069871964123</v>
+        <v>180.109104</v>
       </c>
       <c r="I14">
-        <v>0.1834139881943269</v>
+        <v>0.1776973477074789</v>
       </c>
       <c r="J14">
-        <v>0.1834139881943269</v>
+        <v>0.1862757922293989</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.536288265139416</v>
+        <v>1.6605755</v>
       </c>
       <c r="N14">
-        <v>0.536288265139416</v>
+        <v>3.321151</v>
       </c>
       <c r="O14">
-        <v>0.1534216891803396</v>
+        <v>0.4183476510362441</v>
       </c>
       <c r="P14">
-        <v>0.1534216891803396</v>
+        <v>0.3376807885245403</v>
       </c>
       <c r="Q14">
-        <v>31.21572418255615</v>
+        <v>99.69492180978401</v>
       </c>
       <c r="R14">
-        <v>31.21572418255615</v>
+        <v>598.169530858704</v>
       </c>
       <c r="S14">
-        <v>0.02813968388807651</v>
+        <v>0.07433926800879449</v>
       </c>
       <c r="T14">
-        <v>0.02813968388807651</v>
+        <v>0.06290175640305685</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>58.2069871964123</v>
+        <v>60.036368</v>
       </c>
       <c r="H15">
-        <v>58.2069871964123</v>
+        <v>180.109104</v>
       </c>
       <c r="I15">
-        <v>0.1834139881943269</v>
+        <v>0.1776973477074789</v>
       </c>
       <c r="J15">
-        <v>0.1834139881943269</v>
+        <v>0.1862757922293989</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.779176926621076</v>
+        <v>0.08815566666666667</v>
       </c>
       <c r="N15">
-        <v>0.779176926621076</v>
+        <v>0.264467</v>
       </c>
       <c r="O15">
-        <v>0.2229074324821822</v>
+        <v>0.02220899686616725</v>
       </c>
       <c r="P15">
-        <v>0.2229074324821822</v>
+        <v>0.02688990205465503</v>
       </c>
       <c r="Q15">
-        <v>45.35354139157285</v>
+        <v>5.292546045285334</v>
       </c>
       <c r="R15">
-        <v>45.35354139157285</v>
+        <v>47.632914407568</v>
       </c>
       <c r="S15">
-        <v>0.04088434118971469</v>
+        <v>0.003946479838361631</v>
       </c>
       <c r="T15">
-        <v>0.04088434118971469</v>
+        <v>0.005008937808201806</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>58.2069871964123</v>
+        <v>60.036368</v>
       </c>
       <c r="H16">
-        <v>58.2069871964123</v>
+        <v>180.109104</v>
       </c>
       <c r="I16">
-        <v>0.1834139881943269</v>
+        <v>0.1776973477074789</v>
       </c>
       <c r="J16">
-        <v>0.1834139881943269</v>
+        <v>0.1862757922293989</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.410477361129697</v>
+        <v>0.3906076666666667</v>
       </c>
       <c r="N16">
-        <v>0.410477361129697</v>
+        <v>1.171823</v>
       </c>
       <c r="O16">
-        <v>0.1174296254616625</v>
+        <v>0.09840552255934656</v>
       </c>
       <c r="P16">
-        <v>0.1174296254616625</v>
+        <v>0.1191460775650347</v>
       </c>
       <c r="Q16">
-        <v>23.89265050369338</v>
+        <v>23.45066561962134</v>
       </c>
       <c r="R16">
-        <v>23.89265050369338</v>
+        <v>211.055990576592</v>
       </c>
       <c r="S16">
-        <v>0.02153823593808961</v>
+        <v>0.01748640035856436</v>
       </c>
       <c r="T16">
-        <v>0.02153823593808961</v>
+        <v>0.02219402998945224</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>66.2616426112409</v>
+        <v>60.036368</v>
       </c>
       <c r="H17">
-        <v>66.2616426112409</v>
+        <v>180.109104</v>
       </c>
       <c r="I17">
-        <v>0.2087947293101599</v>
+        <v>0.1776973477074789</v>
       </c>
       <c r="J17">
-        <v>0.2087947293101599</v>
+        <v>0.1862757922293989</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.56589620910647</v>
+        <v>0.569855</v>
       </c>
       <c r="N17">
-        <v>1.56589620910647</v>
+        <v>1.709565</v>
       </c>
       <c r="O17">
-        <v>0.4479725869439832</v>
+        <v>0.143563180765499</v>
       </c>
       <c r="P17">
-        <v>0.4479725869439832</v>
+        <v>0.1738214423957103</v>
       </c>
       <c r="Q17">
-        <v>103.7588549741099</v>
+        <v>34.21202448664</v>
       </c>
       <c r="R17">
-        <v>103.7588549741099</v>
+        <v>307.90822037976</v>
       </c>
       <c r="S17">
-        <v>0.09353431502934104</v>
+        <v>0.02551079645047852</v>
       </c>
       <c r="T17">
-        <v>0.09353431502934104</v>
+        <v>0.03237872688871777</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>66.2616426112409</v>
+        <v>60.036368</v>
       </c>
       <c r="H18">
-        <v>66.2616426112409</v>
+        <v>180.109104</v>
       </c>
       <c r="I18">
-        <v>0.2087947293101599</v>
+        <v>0.1776973477074789</v>
       </c>
       <c r="J18">
-        <v>0.2087947293101599</v>
+        <v>0.1862757922293989</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.203679166430238</v>
+        <v>0.847826</v>
       </c>
       <c r="N18">
-        <v>0.203679166430238</v>
+        <v>2.543478</v>
       </c>
       <c r="O18">
-        <v>0.05826866593183248</v>
+        <v>0.2135922248566564</v>
       </c>
       <c r="P18">
-        <v>0.05826866593183248</v>
+        <v>0.2586102398339674</v>
       </c>
       <c r="Q18">
-        <v>13.49611613335589</v>
+        <v>50.900393735968</v>
       </c>
       <c r="R18">
-        <v>13.49611613335589</v>
+        <v>458.103543623712</v>
       </c>
       <c r="S18">
-        <v>0.0121661903305011</v>
+        <v>0.03795477184796729</v>
       </c>
       <c r="T18">
-        <v>0.0121661903305011</v>
+        <v>0.04817282730370713</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>66.2616426112409</v>
+        <v>60.036368</v>
       </c>
       <c r="H19">
-        <v>66.2616426112409</v>
+        <v>180.109104</v>
       </c>
       <c r="I19">
-        <v>0.2087947293101599</v>
+        <v>0.1776973477074789</v>
       </c>
       <c r="J19">
-        <v>0.2087947293101599</v>
+        <v>0.1862757922293989</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.536288265139416</v>
+        <v>0.4123475</v>
       </c>
       <c r="N19">
-        <v>0.536288265139416</v>
+        <v>0.824695</v>
       </c>
       <c r="O19">
-        <v>0.1534216891803396</v>
+        <v>0.1038824239160867</v>
       </c>
       <c r="P19">
-        <v>0.1534216891803396</v>
+        <v>0.0838515496260922</v>
       </c>
       <c r="Q19">
-        <v>35.53534136127038</v>
+        <v>24.75584625388</v>
       </c>
       <c r="R19">
-        <v>35.53534136127038</v>
+        <v>148.53507752328</v>
       </c>
       <c r="S19">
-        <v>0.03203364006271649</v>
+        <v>0.01845963120331258</v>
       </c>
       <c r="T19">
-        <v>0.03203364006271649</v>
+        <v>0.01561951383626308</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>66.2616426112409</v>
+        <v>67.73010366666666</v>
       </c>
       <c r="H20">
-        <v>66.2616426112409</v>
+        <v>203.190311</v>
       </c>
       <c r="I20">
-        <v>0.2087947293101599</v>
+        <v>0.200469485121406</v>
       </c>
       <c r="J20">
-        <v>0.2087947293101599</v>
+        <v>0.2101472680407257</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.779176926621076</v>
+        <v>1.6605755</v>
       </c>
       <c r="N20">
-        <v>0.779176926621076</v>
+        <v>3.321151</v>
       </c>
       <c r="O20">
-        <v>0.2229074324821822</v>
+        <v>0.4183476510362441</v>
       </c>
       <c r="P20">
-        <v>0.2229074324821822</v>
+        <v>0.3376807885245403</v>
       </c>
       <c r="Q20">
-        <v>51.62954304269081</v>
+        <v>112.4709507613268</v>
       </c>
       <c r="R20">
-        <v>51.62954304269081</v>
+        <v>674.825704567961</v>
       </c>
       <c r="S20">
-        <v>0.04654189702633998</v>
+        <v>0.08386593820498547</v>
       </c>
       <c r="T20">
-        <v>0.04654189702633998</v>
+        <v>0.07096269517827018</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>66.2616426112409</v>
+        <v>67.73010366666666</v>
       </c>
       <c r="H21">
-        <v>66.2616426112409</v>
+        <v>203.190311</v>
       </c>
       <c r="I21">
-        <v>0.2087947293101599</v>
+        <v>0.200469485121406</v>
       </c>
       <c r="J21">
-        <v>0.2087947293101599</v>
+        <v>0.2101472680407257</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.410477361129697</v>
+        <v>0.08815566666666667</v>
       </c>
       <c r="N21">
-        <v>0.410477361129697</v>
+        <v>0.264467</v>
       </c>
       <c r="O21">
-        <v>0.1174296254616625</v>
+        <v>0.02220899686616725</v>
       </c>
       <c r="P21">
-        <v>0.1174296254616625</v>
+        <v>0.02688990205465503</v>
       </c>
       <c r="Q21">
-        <v>27.19890420318125</v>
+        <v>5.970792442137445</v>
       </c>
       <c r="R21">
-        <v>27.19890420318125</v>
+        <v>53.73713197923701</v>
       </c>
       <c r="S21">
-        <v>0.02451868686126129</v>
+        <v>0.004452226166823469</v>
       </c>
       <c r="T21">
-        <v>0.02451868686126129</v>
+        <v>0.005650839454668452</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>23.9988076834399</v>
+        <v>67.73010366666666</v>
       </c>
       <c r="H22">
-        <v>23.9988076834399</v>
+        <v>203.190311</v>
       </c>
       <c r="I22">
-        <v>0.07562179802014692</v>
+        <v>0.200469485121406</v>
       </c>
       <c r="J22">
-        <v>0.07562179802014692</v>
+        <v>0.2101472680407257</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.56589620910647</v>
+        <v>0.3906076666666667</v>
       </c>
       <c r="N22">
-        <v>1.56589620910647</v>
+        <v>1.171823</v>
       </c>
       <c r="O22">
-        <v>0.4479725869439832</v>
+        <v>0.09840552255934656</v>
       </c>
       <c r="P22">
-        <v>0.4479725869439832</v>
+        <v>0.1191460775650347</v>
       </c>
       <c r="Q22">
-        <v>37.57964197457377</v>
+        <v>26.45589775632811</v>
       </c>
       <c r="R22">
-        <v>37.57964197457377</v>
+        <v>238.103079806953</v>
       </c>
       <c r="S22">
-        <v>0.0338764924884406</v>
+        <v>0.01972730444057511</v>
       </c>
       <c r="T22">
-        <v>0.0338764924884406</v>
+        <v>0.02503822269806043</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>23.9988076834399</v>
+        <v>67.73010366666666</v>
       </c>
       <c r="H23">
-        <v>23.9988076834399</v>
+        <v>203.190311</v>
       </c>
       <c r="I23">
-        <v>0.07562179802014692</v>
+        <v>0.200469485121406</v>
       </c>
       <c r="J23">
-        <v>0.07562179802014692</v>
+        <v>0.2101472680407257</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.203679166430238</v>
+        <v>0.569855</v>
       </c>
       <c r="N23">
-        <v>0.203679166430238</v>
+        <v>1.709565</v>
       </c>
       <c r="O23">
-        <v>0.05826866593183248</v>
+        <v>0.143563180765499</v>
       </c>
       <c r="P23">
-        <v>0.05826866593183248</v>
+        <v>0.1738214423957103</v>
       </c>
       <c r="Q23">
-        <v>4.88805714428263</v>
+        <v>38.59633822496833</v>
       </c>
       <c r="R23">
-        <v>4.88805714428263</v>
+        <v>347.367044024715</v>
       </c>
       <c r="S23">
-        <v>0.004406381286000452</v>
+        <v>0.02878003693045092</v>
       </c>
       <c r="T23">
-        <v>0.004406381286000452</v>
+        <v>0.0365281012463569</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>23.9988076834399</v>
+        <v>67.73010366666666</v>
       </c>
       <c r="H24">
-        <v>23.9988076834399</v>
+        <v>203.190311</v>
       </c>
       <c r="I24">
-        <v>0.07562179802014692</v>
+        <v>0.200469485121406</v>
       </c>
       <c r="J24">
-        <v>0.07562179802014692</v>
+        <v>0.2101472680407257</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.536288265139416</v>
+        <v>0.847826</v>
       </c>
       <c r="N24">
-        <v>0.536288265139416</v>
+        <v>2.543478</v>
       </c>
       <c r="O24">
-        <v>0.1534216891803396</v>
+        <v>0.2135922248566564</v>
       </c>
       <c r="P24">
-        <v>0.1534216891803396</v>
+        <v>0.2586102398339674</v>
       </c>
       <c r="Q24">
-        <v>12.87027893796647</v>
+        <v>57.42334287129533</v>
       </c>
       <c r="R24">
-        <v>12.87027893796647</v>
+        <v>516.810085841658</v>
       </c>
       <c r="S24">
-        <v>0.0116020239911054</v>
+        <v>0.04281872334294948</v>
       </c>
       <c r="T24">
-        <v>0.0116020239911054</v>
+        <v>0.05434623538846511</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>23.9988076834399</v>
+        <v>67.73010366666666</v>
       </c>
       <c r="H25">
-        <v>23.9988076834399</v>
+        <v>203.190311</v>
       </c>
       <c r="I25">
-        <v>0.07562179802014692</v>
+        <v>0.200469485121406</v>
       </c>
       <c r="J25">
-        <v>0.07562179802014692</v>
+        <v>0.2101472680407257</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.779176926621076</v>
+        <v>0.4123475</v>
       </c>
       <c r="N25">
-        <v>0.779176926621076</v>
+        <v>0.824695</v>
       </c>
       <c r="O25">
-        <v>0.2229074324821822</v>
+        <v>0.1038824239160867</v>
       </c>
       <c r="P25">
-        <v>0.2229074324821822</v>
+        <v>0.0838515496260922</v>
       </c>
       <c r="Q25">
-        <v>18.69931721335297</v>
+        <v>27.92833892169083</v>
       </c>
       <c r="R25">
-        <v>18.69931721335297</v>
+        <v>167.570033530145</v>
       </c>
       <c r="S25">
-        <v>0.01685666083635712</v>
+        <v>0.02082525603562153</v>
       </c>
       <c r="T25">
-        <v>0.01685666083635712</v>
+        <v>0.01762117407490461</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>23.9988076834399</v>
+        <v>27.15284733333333</v>
       </c>
       <c r="H26">
-        <v>23.9988076834399</v>
+        <v>81.45854199999999</v>
       </c>
       <c r="I26">
-        <v>0.07562179802014692</v>
+        <v>0.0803677689802858</v>
       </c>
       <c r="J26">
-        <v>0.07562179802014692</v>
+        <v>0.08424757054425056</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.410477361129697</v>
+        <v>1.6605755</v>
       </c>
       <c r="N26">
-        <v>0.410477361129697</v>
+        <v>3.321151</v>
       </c>
       <c r="O26">
-        <v>0.1174296254616625</v>
+        <v>0.4183476510362441</v>
       </c>
       <c r="P26">
-        <v>0.1174296254616625</v>
+        <v>0.3376807885245403</v>
       </c>
       <c r="Q26">
-        <v>9.850967248157508</v>
+        <v>45.08935303697366</v>
       </c>
       <c r="R26">
-        <v>9.850967248157508</v>
+        <v>270.536118221842</v>
       </c>
       <c r="S26">
-        <v>0.008880239418243344</v>
+        <v>0.03362166737192608</v>
       </c>
       <c r="T26">
-        <v>0.008880239418243344</v>
+        <v>0.02844878605265936</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>23.8606831460953</v>
+        <v>27.15284733333333</v>
       </c>
       <c r="H27">
-        <v>23.8606831460953</v>
+        <v>81.45854199999999</v>
       </c>
       <c r="I27">
-        <v>0.07518655865315506</v>
+        <v>0.0803677689802858</v>
       </c>
       <c r="J27">
-        <v>0.07518655865315506</v>
+        <v>0.08424757054425056</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M27">
-        <v>1.56589620910647</v>
+        <v>0.08815566666666667</v>
       </c>
       <c r="N27">
-        <v>1.56589620910647</v>
+        <v>0.264467</v>
       </c>
       <c r="O27">
-        <v>0.4479725869439832</v>
+        <v>0.02220899686616725</v>
       </c>
       <c r="P27">
-        <v>0.4479725869439832</v>
+        <v>0.02688990205465503</v>
       </c>
       <c r="Q27">
-        <v>37.36335328516127</v>
+        <v>2.393677358568222</v>
       </c>
       <c r="R27">
-        <v>37.36335328516127</v>
+        <v>21.543096227114</v>
       </c>
       <c r="S27">
-        <v>0.03368151718326939</v>
+        <v>0.001784887529424021</v>
       </c>
       <c r="T27">
-        <v>0.03368151718326939</v>
+        <v>0.002265408920277538</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2149,57 +2149,57 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>23.8606831460953</v>
+        <v>27.15284733333333</v>
       </c>
       <c r="H28">
-        <v>23.8606831460953</v>
+        <v>81.45854199999999</v>
       </c>
       <c r="I28">
-        <v>0.07518655865315506</v>
+        <v>0.0803677689802858</v>
       </c>
       <c r="J28">
-        <v>0.07518655865315506</v>
+        <v>0.08424757054425056</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.203679166430238</v>
+        <v>0.3906076666666667</v>
       </c>
       <c r="N28">
-        <v>0.203679166430238</v>
+        <v>1.171823</v>
       </c>
       <c r="O28">
-        <v>0.05826866593183248</v>
+        <v>0.09840552255934656</v>
       </c>
       <c r="P28">
-        <v>0.05826866593183248</v>
+        <v>0.1191460775650347</v>
       </c>
       <c r="Q28">
-        <v>4.85992405365272</v>
+        <v>10.60611034022955</v>
       </c>
       <c r="R28">
-        <v>4.85992405365272</v>
+        <v>95.45499306206599</v>
       </c>
       <c r="S28">
-        <v>0.004381020468724821</v>
+        <v>0.007908632303433867</v>
       </c>
       <c r="T28">
-        <v>0.004381020468724821</v>
+        <v>0.01003776757473101</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2211,57 +2211,57 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>23.8606831460953</v>
+        <v>27.15284733333333</v>
       </c>
       <c r="H29">
-        <v>23.8606831460953</v>
+        <v>81.45854199999999</v>
       </c>
       <c r="I29">
-        <v>0.07518655865315506</v>
+        <v>0.0803677689802858</v>
       </c>
       <c r="J29">
-        <v>0.07518655865315506</v>
+        <v>0.08424757054425056</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.536288265139416</v>
+        <v>0.569855</v>
       </c>
       <c r="N29">
-        <v>0.536288265139416</v>
+        <v>1.709565</v>
       </c>
       <c r="O29">
-        <v>0.1534216891803396</v>
+        <v>0.143563180765499</v>
       </c>
       <c r="P29">
-        <v>0.1534216891803396</v>
+        <v>0.1738214423957103</v>
       </c>
       <c r="Q29">
-        <v>12.79620436946075</v>
+        <v>15.47318581713666</v>
       </c>
       <c r="R29">
-        <v>12.79620436946075</v>
+        <v>139.25867235423</v>
       </c>
       <c r="S29">
-        <v>0.01153524883222373</v>
+        <v>0.01153785254583663</v>
       </c>
       <c r="T29">
-        <v>0.01153524883222373</v>
+        <v>0.01464403423033599</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>23.8606831460953</v>
+        <v>27.15284733333333</v>
       </c>
       <c r="H30">
-        <v>23.8606831460953</v>
+        <v>81.45854199999999</v>
       </c>
       <c r="I30">
-        <v>0.07518655865315506</v>
+        <v>0.0803677689802858</v>
       </c>
       <c r="J30">
-        <v>0.07518655865315506</v>
+        <v>0.08424757054425056</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.779176926621076</v>
+        <v>0.847826</v>
       </c>
       <c r="N30">
-        <v>0.779176926621076</v>
+        <v>2.543478</v>
       </c>
       <c r="O30">
-        <v>0.2229074324821822</v>
+        <v>0.2135922248566564</v>
       </c>
       <c r="P30">
-        <v>0.2229074324821822</v>
+        <v>0.2586102398339674</v>
       </c>
       <c r="Q30">
-        <v>18.59169376085384</v>
+        <v>23.02088994323066</v>
       </c>
       <c r="R30">
-        <v>18.59169376085384</v>
+        <v>207.188009489076</v>
       </c>
       <c r="S30">
-        <v>0.01675964274654579</v>
+        <v>0.01716593058326502</v>
       </c>
       <c r="T30">
-        <v>0.01675964274654579</v>
+        <v>0.02178728442387773</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,52 +2335,424 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>23.8606831460953</v>
+        <v>27.15284733333333</v>
       </c>
       <c r="H31">
-        <v>23.8606831460953</v>
+        <v>81.45854199999999</v>
       </c>
       <c r="I31">
-        <v>0.07518655865315506</v>
+        <v>0.0803677689802858</v>
       </c>
       <c r="J31">
-        <v>0.07518655865315506</v>
+        <v>0.08424757054425056</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.410477361129697</v>
+        <v>0.4123475</v>
       </c>
       <c r="N31">
-        <v>0.410477361129697</v>
+        <v>0.824695</v>
       </c>
       <c r="O31">
-        <v>0.1174296254616625</v>
+        <v>0.1038824239160867</v>
       </c>
       <c r="P31">
-        <v>0.1174296254616625</v>
+        <v>0.0838515496260922</v>
       </c>
       <c r="Q31">
-        <v>9.794270252561036</v>
+        <v>11.19640871578166</v>
       </c>
       <c r="R31">
-        <v>9.794270252561036</v>
+        <v>67.17845229468999</v>
       </c>
       <c r="S31">
-        <v>0.00882912942239132</v>
+        <v>0.008348798646400174</v>
       </c>
       <c r="T31">
-        <v>0.00882912942239132</v>
+        <v>0.007064289342368929</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>24.1210785</v>
+      </c>
+      <c r="H32">
+        <v>48.242157</v>
+      </c>
+      <c r="I32">
+        <v>0.07139425345140619</v>
+      </c>
+      <c r="J32">
+        <v>0.04989390216515674</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.6605755</v>
+      </c>
+      <c r="N32">
+        <v>3.321151</v>
+      </c>
+      <c r="O32">
+        <v>0.4183476510362441</v>
+      </c>
+      <c r="P32">
+        <v>0.3376807885245403</v>
+      </c>
+      <c r="Q32">
+        <v>40.05487199067675</v>
+      </c>
+      <c r="R32">
+        <v>160.219487962707</v>
+      </c>
+      <c r="S32">
+        <v>0.02986761822888204</v>
+      </c>
+      <c r="T32">
+        <v>0.0168482122256964</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>24.1210785</v>
+      </c>
+      <c r="H33">
+        <v>48.242157</v>
+      </c>
+      <c r="I33">
+        <v>0.07139425345140619</v>
+      </c>
+      <c r="J33">
+        <v>0.04989390216515674</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>0.08815566666666667</v>
+      </c>
+      <c r="N33">
+        <v>0.264467</v>
+      </c>
+      <c r="O33">
+        <v>0.02220899686616725</v>
+      </c>
+      <c r="P33">
+        <v>0.02688990205465503</v>
+      </c>
+      <c r="Q33">
+        <v>2.1264097558865</v>
+      </c>
+      <c r="R33">
+        <v>12.758458535319</v>
+      </c>
+      <c r="S33">
+        <v>0.001585594751164631</v>
+      </c>
+      <c r="T33">
+        <v>0.001341642142345605</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>24.1210785</v>
+      </c>
+      <c r="H34">
+        <v>48.242157</v>
+      </c>
+      <c r="I34">
+        <v>0.07139425345140619</v>
+      </c>
+      <c r="J34">
+        <v>0.04989390216515674</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.3906076666666667</v>
+      </c>
+      <c r="N34">
+        <v>1.171823</v>
+      </c>
+      <c r="O34">
+        <v>0.09840552255934656</v>
+      </c>
+      <c r="P34">
+        <v>0.1191460775650347</v>
+      </c>
+      <c r="Q34">
+        <v>9.421878190368501</v>
+      </c>
+      <c r="R34">
+        <v>56.531269142211</v>
+      </c>
+      <c r="S34">
+        <v>0.007025588818620059</v>
+      </c>
+      <c r="T34">
+        <v>0.005944662737392015</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>24.1210785</v>
+      </c>
+      <c r="H35">
+        <v>48.242157</v>
+      </c>
+      <c r="I35">
+        <v>0.07139425345140619</v>
+      </c>
+      <c r="J35">
+        <v>0.04989390216515674</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.569855</v>
+      </c>
+      <c r="N35">
+        <v>1.709565</v>
+      </c>
+      <c r="O35">
+        <v>0.143563180765499</v>
+      </c>
+      <c r="P35">
+        <v>0.1738214423957103</v>
+      </c>
+      <c r="Q35">
+        <v>13.7455171886175</v>
+      </c>
+      <c r="R35">
+        <v>82.473103131705</v>
+      </c>
+      <c r="S35">
+        <v>0.01024958611386208</v>
+      </c>
+      <c r="T35">
+        <v>0.008672630041098001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>24.1210785</v>
+      </c>
+      <c r="H36">
+        <v>48.242157</v>
+      </c>
+      <c r="I36">
+        <v>0.07139425345140619</v>
+      </c>
+      <c r="J36">
+        <v>0.04989390216515674</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.847826</v>
+      </c>
+      <c r="N36">
+        <v>2.543478</v>
+      </c>
+      <c r="O36">
+        <v>0.2135922248566564</v>
+      </c>
+      <c r="P36">
+        <v>0.2586102398339674</v>
+      </c>
+      <c r="Q36">
+        <v>20.450477500341</v>
+      </c>
+      <c r="R36">
+        <v>122.702865002046</v>
+      </c>
+      <c r="S36">
+        <v>0.01524925743666587</v>
+      </c>
+      <c r="T36">
+        <v>0.01290307400518369</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>24.1210785</v>
+      </c>
+      <c r="H37">
+        <v>48.242157</v>
+      </c>
+      <c r="I37">
+        <v>0.07139425345140619</v>
+      </c>
+      <c r="J37">
+        <v>0.04989390216515674</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.4123475</v>
+      </c>
+      <c r="N37">
+        <v>0.824695</v>
+      </c>
+      <c r="O37">
+        <v>0.1038824239160867</v>
+      </c>
+      <c r="P37">
+        <v>0.0838515496260922</v>
+      </c>
+      <c r="Q37">
+        <v>9.94626641677875</v>
+      </c>
+      <c r="R37">
+        <v>39.785065667115</v>
+      </c>
+      <c r="S37">
+        <v>0.007416608102211515</v>
+      </c>
+      <c r="T37">
+        <v>0.004183681013441029</v>
       </c>
     </row>
   </sheetData>
